--- a/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
+++ b/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
@@ -451,351 +451,471 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>009164</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>中加聚庆六个月定期开放混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>009165</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>中加聚庆六个月定期开放混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000592</t>
+          <t>530001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信改革红利股票</t>
+          <t>建信恒久价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>75.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>008177</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>建信高股息主题股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>006972</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000547</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信健康民生混合</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>165313</t>
+          <t>000592</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信优势动力混合(LOF)</t>
+          <t>建信改革红利股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>73.82</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>165313</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>建信优势动力混合(LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006538</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东海核心价值精选混合</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006972</t>
+          <t>001858</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
+          <t>建信鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007735</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
+          <t>建信健康民生混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001830</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>融通跨界成长灵活配置混合</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001858</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信鑫利灵活配置混合</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>530001</t>
+          <t>002252</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>建信恒久价值混合</t>
+          <t>融通成长30灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>75.11</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002252</t>
+          <t>004265</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>融通成长30灵活配置混合</t>
+          <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>009164</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>中加聚庆六个月定期开放混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>73.22</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>008356</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中加科丰价值精选混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>009186</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>天弘聚新三个月定期开放混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002910</t>
+          <t>009165</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>易方达供给改革灵活配置混合</t>
+          <t>中加聚庆六个月定期开放混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008177</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>建信高股息主题股票</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>82.85</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>007735</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>金鹰民安回报一年定期开放混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008356</t>
+          <t>001830</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中加科丰价值精选混合</t>
+          <t>融通跨界成长灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>22.83</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009164</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合A</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009165</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合C</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009186</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合A</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26.84</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>006538</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>东海核心价值精选混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
+++ b/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
+++ b/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3158,4 +3159,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
+++ b/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4051,4 +4052,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
+++ b/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4060,7 +4061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4071,17 +4072,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4091,14 +4112,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.62</v>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4107,14 +4150,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.98</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4123,14 +4188,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.96</v>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4139,13 +4226,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
+++ b/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4801,7 +4802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4812,17 +4813,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4832,14 +4853,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.449999999999999</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4848,14 +4891,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.62</v>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4864,14 +4929,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.98</v>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5820</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4880,14 +4967,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.96</v>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4896,13 +5005,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
+++ b/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5352,7 +5353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5363,17 +5364,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5383,14 +5404,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.48</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5399,14 +5442,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.449999999999999</v>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5415,14 +5480,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.62</v>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5431,14 +5518,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.98</v>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5447,14 +5556,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.96</v>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5463,13 +5594,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.449999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
+++ b/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3.41</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>4.48</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>9.449999999999999</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>4.62</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>4.98</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>5.96</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.21</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +1772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2325,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3217,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4223,7 +4410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5457,7 +5644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
+++ b/数据整理/stocks/A股/深证主板/002206-海利得.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.41</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4.48</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>9.449999999999999</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>4.62</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>4.98</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>5.96</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,504 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1108,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -786,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1222,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1772,7 +2507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2512,7 +3247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3404,7 +4139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4410,7 +5145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5642,478 +6377,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6469</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2710</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0860</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0685</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009164</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0568</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009165</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000270</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>